--- a/biology/Médecine/Dyslalie/Dyslalie.xlsx
+++ b/biology/Médecine/Dyslalie/Dyslalie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dyslalie est un trouble de la communication caractérisé par des difficultés d'articulation dues à des malformations physiques[1]. Le discours et la syntaxe sont tout à fait valides. La dyslalie peut être d'origine fonctionnelle ou organique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dyslalie est un trouble de la communication caractérisé par des difficultés d'articulation dues à des malformations physiques. Le discours et la syntaxe sont tout à fait valides. La dyslalie peut être d'origine fonctionnelle ou organique.
 </t>
         </is>
       </c>
@@ -513,9 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dyslalie infantile
-Les dyslalies infantiles sont les plus fréquemment rencontrées. Le jeune enfant, âgé de moins de quatre ans, connaît beaucoup de problèmes d'articulation, surtout sur les phonèmes difficiles. Cependant, avant cet âge, ces dyslalies sont dites physiologiques puisqu'elles font partie du processus d'apprentissage du langage. Toutefois, la dyslalie est généralement considérée comme pathologique si l'enfant âgé de plus de quatre ans continue à avoir des problèmes d'articulation. Il est nécessaire de rééduquer les points d'articulation au plus vite, pour éviter que la dyslalie n'entraîne des problèmes d'apprentissage de la lecture.
-Les confusions se font généralement sur les voyelles nasales, et sur les consonnes constrictives (il est alors question de sigmatisme)[2].
+          <t>Dyslalie infantile</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dyslalies infantiles sont les plus fréquemment rencontrées. Le jeune enfant, âgé de moins de quatre ans, connaît beaucoup de problèmes d'articulation, surtout sur les phonèmes difficiles. Cependant, avant cet âge, ces dyslalies sont dites physiologiques puisqu'elles font partie du processus d'apprentissage du langage. Toutefois, la dyslalie est généralement considérée comme pathologique si l'enfant âgé de plus de quatre ans continue à avoir des problèmes d'articulation. Il est nécessaire de rééduquer les points d'articulation au plus vite, pour éviter que la dyslalie n'entraîne des problèmes d'apprentissage de la lecture.
+Les confusions se font généralement sur les voyelles nasales, et sur les consonnes constrictives (il est alors question de sigmatisme).
 Le sigmatisme est la mauvaise articulation des consonnes constrictives. C'est un des troubles dyslaliques les plus fréquents chez l'enfant, puisque ce type de phonèmes nécessite une précision très importante de l'articulation. Le sigmatisme intervenant sur les consonnes constrictives peut avoir plusieurs appellations, suivant son origine :
 Le sigmatisme nasal est dû à un positionnement de la langue qui rend impossible le passage de l'air par la cavité buccale ;
 Le sigmatisme dorsal est également dû à un soulèvement de la langue excessif ;
@@ -549,7 +566,9 @@
           <t>Bégaiement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bégaiement est considéré ou a été considéré comme faisant partie des dyslalies par certains phoniatres, qui lient donc le bégaiement à « un trouble moteur de l'articulation ». Selon eux, le bégaiement, à lui seul, représenterait environ la moitié des cas de dyslalies[réf. nécessaire]. Ce lien est remis en cause par des  études plus récentes sur le bégaiement.
 </t>
@@ -580,10 +599,12 @@
           <t>Susseyement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le susseyement, zézayement ou zézaiement, familièrement le zozotement[3], est un trouble de la parole affectant notamment la prononciation des « s ». Ce vice de prononciation consiste à dire [s] à la place de [ ʃ ] et [z] à la place de [ ʒ] (par exemple « pizon » pour pigeon, « sien » pour chien, etc.), et/ou [ð] à la place de [z] et [θ] à la place de [s].
-Ce terme apparaît ainsi dans les Mémoires de l'actrice Mademoiselle Clairon, où elle indique que « ce mot […] n'est guère connu que dans les coulisses[4]. » On dit aussi d'une personne qui zozote qu'elle a « un cheveu sur la langue ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le susseyement, zézayement ou zézaiement, familièrement le zozotement, est un trouble de la parole affectant notamment la prononciation des « s ». Ce vice de prononciation consiste à dire [s] à la place de [ ʃ ] et [z] à la place de [ ʒ] (par exemple « pizon » pour pigeon, « sien » pour chien, etc.), et/ou [ð] à la place de [z] et [θ] à la place de [s].
+Ce terme apparaît ainsi dans les Mémoires de l'actrice Mademoiselle Clairon, où elle indique que « ce mot […] n'est guère connu que dans les coulisses. » On dit aussi d'une personne qui zozote qu'elle a « un cheveu sur la langue ».
 </t>
         </is>
       </c>
@@ -612,7 +633,9 @@
           <t>Dyslalies d'origine organique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les infirmes moteurs cérébraux sont parfois sujets aux dyslalies. Celles-ci proviennent des difficultés musculaires de l'articulation. Si la concentration n'est pas suffisante, le discours peut être très brouillon, avec des sauts d'intonation. En adoptant un rythme plus lent et une concentration plus grande, le sujet peut arriver à tenir un discours très intelligible.
 Le timbre de la voix de l'IMC est généralement rauque, avec une tonalité décalée vers les sons aigus.
